--- a/Tien Trinh.xlsx
+++ b/Tien Trinh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/Desktop/Report/Baocao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA3D0F3F-D6BB-7B43-861C-16A80D23A13B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E6B207-97EF-2D48-B0FC-1EE40406690B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{B2DBE721-EF54-2D41-B34A-A99403E65C95}"/>
   </bookViews>
@@ -22,6 +22,44 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Tuần</t>
+  </si>
+  <si>
+    <t>Công việc</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Tình trạng</t>
+  </si>
+  <si>
+    <t>Tìm hiểu mongodb và fire base</t>
+  </si>
+  <si>
+    <t>Tìm hiểu api của mongodb</t>
+  </si>
+  <si>
+    <t>viết demo đăng nhập sủ dụng api</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,8 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +412,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33827E2-9824-0743-B508-F79F82222A08}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>